--- a/result/with_base/234/valence/s16_8.xlsx
+++ b/result/with_base/234/valence/s16_8.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7949999868869781</v>
+        <v>0.8214285671710968</v>
       </c>
       <c r="C2" t="n">
-        <v>41687.193359375</v>
+        <v>11283.501953125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8211363554000854</v>
+        <v>0.7977941176470589</v>
       </c>
       <c r="E2" t="n">
-        <v>41684.83274147727</v>
+        <v>11284.10782398897</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8599999845027924</v>
+        <v>0.8928571343421936</v>
       </c>
       <c r="C3" t="n">
-        <v>40894.10546875</v>
+        <v>10973.35986328125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8821590922095559</v>
+        <v>0.8751969547832713</v>
       </c>
       <c r="E3" t="n">
-        <v>40891.13742897727</v>
+        <v>10974.14303768382</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8799999952316284</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C4" t="n">
-        <v>40111.408203125</v>
+        <v>10668.0380859375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9189772768454119</v>
+        <v>0.9010635509210474</v>
       </c>
       <c r="E4" t="n">
-        <v>40109.29367897727</v>
+        <v>10668.46564797794</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8925000131130219</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C5" t="n">
-        <v>39340.640625</v>
+        <v>10368.9755859375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9396590915593234</v>
+        <v>0.9166885509210474</v>
       </c>
       <c r="E5" t="n">
-        <v>39338.74964488636</v>
+        <v>10369.00907628676</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C6" t="n">
-        <v>38582.13671875</v>
+        <v>10076.6025390625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9515909119085832</v>
+        <v>0.9318539920975181</v>
       </c>
       <c r="E6" t="n">
-        <v>38580.68785511364</v>
+        <v>10076.36563648897</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C7" t="n">
-        <v>37836.69140625</v>
+        <v>9790.82373046875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9596590833230452</v>
+        <v>0.9463629196671879</v>
       </c>
       <c r="E7" t="n">
-        <v>37834.96306818182</v>
+        <v>9790.562844669117</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C8" t="n">
-        <v>37103.337890625</v>
+        <v>9512.013671875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9628409093076532</v>
+        <v>0.948660713784835</v>
       </c>
       <c r="E8" t="n">
-        <v>37102.08345170454</v>
+        <v>9511.629423253677</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.92578125</v>
       </c>
       <c r="C9" t="n">
-        <v>36383.4296875</v>
+        <v>9239.93505859375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9660227244550531</v>
+        <v>0.9544380237074459</v>
       </c>
       <c r="E9" t="n">
-        <v>36382.01207386364</v>
+        <v>9239.67147288603</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C10" t="n">
-        <v>35675.693359375</v>
+        <v>8974.6396484375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.973863650452007</v>
+        <v>0.9572610294117647</v>
       </c>
       <c r="E10" t="n">
-        <v>35674.72159090909</v>
+        <v>8974.281135110294</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9375</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C11" t="n">
-        <v>34981.349609375</v>
+        <v>8716.20947265625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9784091006625782</v>
+        <v>0.9642200645278481</v>
       </c>
       <c r="E11" t="n">
-        <v>34980.21626420454</v>
+        <v>8715.758903952206</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C12" t="n">
-        <v>34299.744140625</v>
+        <v>8464.8359375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9857954653826627</v>
+        <v>0.9473476900773889</v>
       </c>
       <c r="E12" t="n">
-        <v>34298.20099431818</v>
+        <v>8464.107249540441</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C13" t="n">
-        <v>33630.611328125</v>
+        <v>8219.29345703125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9843181913549249</v>
+        <v>0.9702599784907173</v>
       </c>
       <c r="E13" t="n">
-        <v>33628.72407670454</v>
+        <v>8218.806583180147</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C14" t="n">
-        <v>32972.8125</v>
+        <v>7980.251953125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9806328766486224</v>
       </c>
       <c r="E14" t="n">
-        <v>32971.50745738636</v>
+        <v>7979.854721966912</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C15" t="n">
-        <v>32327.0107421875</v>
+        <v>7747.7216796875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9831932783126831</v>
       </c>
       <c r="E15" t="n">
-        <v>32326.18927556818</v>
+        <v>7747.294864430147</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C16" t="n">
-        <v>31693.3837890625</v>
+        <v>7521.34326171875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9833245803328121</v>
       </c>
       <c r="E16" t="n">
-        <v>31692.70099431818</v>
+        <v>7520.854377297794</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C17" t="n">
-        <v>31071.8623046875</v>
+        <v>7300.8193359375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9870454668998718</v>
+        <v>0.9829963235294118</v>
       </c>
       <c r="E17" t="n">
-        <v>31070.99165482954</v>
+        <v>7300.404268152573</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9375</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C18" t="n">
-        <v>30461.8818359375</v>
+        <v>7086.036865234375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9880681904879484</v>
+        <v>0.9903492647058824</v>
       </c>
       <c r="E18" t="n">
-        <v>30460.87482244318</v>
+        <v>7085.749167049632</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C19" t="n">
-        <v>29863.4033203125</v>
+        <v>6877.187255859375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9898863705721769</v>
+        <v>0.9818802510990816</v>
       </c>
       <c r="E19" t="n">
-        <v>29862.12784090909</v>
+        <v>6876.96533203125</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C20" t="n">
-        <v>29275.806640625</v>
+        <v>6673.921142578125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E20" t="n">
-        <v>29274.49946732954</v>
+        <v>6673.667509191177</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9743303656578064</v>
       </c>
       <c r="C21" t="n">
-        <v>28699.083984375</v>
+        <v>6476.209228515625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9923863681879911</v>
+        <v>0.9845719547832713</v>
       </c>
       <c r="E21" t="n">
-        <v>28697.919921875</v>
+        <v>6475.92130055147</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C22" t="n">
-        <v>28133.150390625</v>
+        <v>6283.658203125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E22" t="n">
-        <v>28132.05823863636</v>
+        <v>6283.438648897059</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C23" t="n">
-        <v>27577.5849609375</v>
+        <v>6096.5341796875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9903492647058824</v>
       </c>
       <c r="E23" t="n">
-        <v>27576.78675426136</v>
+        <v>6096.200970818015</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C24" t="n">
-        <v>27032.3310546875</v>
+        <v>5914.36572265625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9929753156269298</v>
       </c>
       <c r="E24" t="n">
-        <v>27031.90216619318</v>
+        <v>5914.077751608456</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C25" t="n">
-        <v>26497.6689453125</v>
+        <v>5737.23193359375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E25" t="n">
-        <v>26497.28888494318</v>
+        <v>5736.945484834559</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C26" t="n">
-        <v>25973.1201171875</v>
+        <v>5564.896484375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9889705882352942</v>
       </c>
       <c r="E26" t="n">
-        <v>25972.783203125</v>
+        <v>5564.652200137868</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C27" t="n">
-        <v>25458.6103515625</v>
+        <v>5397.4052734375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9868697489009184</v>
       </c>
       <c r="E27" t="n">
-        <v>25458.09250710227</v>
+        <v>5397.101189108456</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C28" t="n">
-        <v>24953.6865234375</v>
+        <v>5234.422119140625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9921875</v>
       </c>
       <c r="E28" t="n">
-        <v>24953.06729403409</v>
+        <v>5234.132841222427</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C29" t="n">
-        <v>24458.1240234375</v>
+        <v>5075.98095703125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E29" t="n">
-        <v>24457.62819602273</v>
+        <v>5075.696088005515</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9659598171710968</v>
       </c>
       <c r="C30" t="n">
-        <v>23971.7451171875</v>
+        <v>4921.84912109375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E30" t="n">
-        <v>23971.46892755682</v>
+        <v>4921.637178308823</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C31" t="n">
-        <v>23494.6044921875</v>
+        <v>4772.202392578125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.988839286215165</v>
       </c>
       <c r="E31" t="n">
-        <v>23494.44176136364</v>
+        <v>4771.904813878677</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C32" t="n">
-        <v>23026.8037109375</v>
+        <v>4626.55908203125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9900866606656242</v>
       </c>
       <c r="E32" t="n">
-        <v>23026.40500710227</v>
+        <v>4626.276999080882</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C33" t="n">
-        <v>22567.5234375</v>
+        <v>4484.933349609375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9963235294117647</v>
       </c>
       <c r="E33" t="n">
-        <v>22567.234375</v>
+        <v>4484.706313189338</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C34" t="n">
-        <v>22116.9736328125</v>
+        <v>4347.362060546875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9963235294117647</v>
       </c>
       <c r="E34" t="n">
-        <v>22116.73774857954</v>
+        <v>4347.114286534927</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C35" t="n">
-        <v>21674.939453125</v>
+        <v>4213.607421875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E35" t="n">
-        <v>21674.71519886364</v>
+        <v>4213.367302389706</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C36" t="n">
-        <v>21241.34375</v>
+        <v>4083.60546875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E36" t="n">
-        <v>21241.01970880682</v>
+        <v>4083.365133846507</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C37" t="n">
-        <v>20815.8603515625</v>
+        <v>3957.202758789062</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9965909123420715</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E37" t="n">
-        <v>20815.513671875</v>
+        <v>3957.052533318015</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C38" t="n">
-        <v>20398.197265625</v>
+        <v>3834.473876953125</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E38" t="n">
-        <v>20398.05113636364</v>
+        <v>3834.273336971507</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C39" t="n">
-        <v>19988.7109375</v>
+        <v>3715.12646484375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E39" t="n">
-        <v>19988.48188920454</v>
+        <v>3714.954532398897</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C40" t="n">
-        <v>19586.8076171875</v>
+        <v>3599.16943359375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E40" t="n">
-        <v>19586.66068892046</v>
+        <v>3599.015610638787</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19192.8037109375</v>
+        <v>3486.474731445312</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9892331922755522</v>
       </c>
       <c r="E41" t="n">
-        <v>19192.470703125</v>
+        <v>3486.397216796875</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9743303656578064</v>
       </c>
       <c r="C42" t="n">
-        <v>18806.0458984375</v>
+        <v>3377.062744140625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9943539920975181</v>
       </c>
       <c r="E42" t="n">
-        <v>18805.73384232954</v>
+        <v>3376.961239085478</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C43" t="n">
-        <v>18426.6826171875</v>
+        <v>3270.8779296875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9864758393343758</v>
       </c>
       <c r="E43" t="n">
-        <v>18426.33025568182</v>
+        <v>3270.690975413603</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C44" t="n">
-        <v>18054.240234375</v>
+        <v>3167.65234375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9806328766486224</v>
       </c>
       <c r="E44" t="n">
-        <v>18054.10990767046</v>
+        <v>3167.443747127757</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9659598171710968</v>
       </c>
       <c r="C45" t="n">
-        <v>17689.1015625</v>
+        <v>3067.234497070312</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9869353981579051</v>
       </c>
       <c r="E45" t="n">
-        <v>17688.94584517046</v>
+        <v>3067.130959903493</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C46" t="n">
-        <v>17330.923828125</v>
+        <v>2969.82275390625</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.9929096628637875</v>
       </c>
       <c r="E46" t="n">
-        <v>17330.73686079546</v>
+        <v>2969.716768152573</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C47" t="n">
-        <v>16979.642578125</v>
+        <v>2875.217651367188</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9856223744504592</v>
       </c>
       <c r="E47" t="n">
-        <v>16979.33167613636</v>
+        <v>2875.126105813419</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C48" t="n">
-        <v>16634.93359375</v>
+        <v>2783.32861328125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9854910724303302</v>
       </c>
       <c r="E48" t="n">
-        <v>16634.59783380682</v>
+        <v>2783.252714269302</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C49" t="n">
-        <v>16296.58447265625</v>
+        <v>2694.136962890625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9979545474052429</v>
+        <v>0.9902179626857534</v>
       </c>
       <c r="E49" t="n">
-        <v>16296.39195667614</v>
+        <v>2694.032542509191</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C50" t="n">
-        <v>15964.82080078125</v>
+        <v>2607.511596679688</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9873293077244478</v>
       </c>
       <c r="E50" t="n">
-        <v>15964.63520951705</v>
+        <v>2607.421300551471</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,894 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C51" t="n">
-        <v>15639.37646484375</v>
+        <v>2523.395263671875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9965909123420715</v>
+        <v>0.992056197979871</v>
       </c>
       <c r="E51" t="n">
-        <v>15639.20640980114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15320.03857421875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15319.95197088068</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15006.86962890625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15006.77503551136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14699.7587890625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14699.56436434659</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14398.41015625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14398.21262428977</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14102.69287109375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14102.61558948864</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13812.75439453125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13812.65154474432</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13528.31982421875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13528.22700639205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13249.33642578125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13249.25665838068</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12975.78076171875</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9935227307406339</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12975.65704900568</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12707.4150390625</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12707.27077414773</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12444.1416015625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12444.03373579545</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12185.91943359375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12185.84676846591</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11932.70751953125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11932.63130326705</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11684.49658203125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9940909147262573</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11684.30495383523</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11440.8447265625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11440.72869318182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11202.0263671875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11201.8466796875</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10967.69921875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10967.57528409091</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10737.9365234375</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10737.84135298295</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10512.6298828125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10512.53213778409</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10291.6748046875</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10291.58229758523</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10075.06005859375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10074.92462713068</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9862.58056640625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9862.460138494318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9654.236328125</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9654.118785511364</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9449.9375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9449.838689630682</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9249.640625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9249.536399147728</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9053.19091796875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9053.122336647728</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8860.68798828125</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8860.5546875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8671.87158203125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8671.742365056818</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8486.7412109375</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8486.626154119318</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8305.2197265625</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8305.1318359375</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7284768211920529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7682119205298014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7814569536423841</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9470198675496688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.02247191011235955</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9470198675496688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.02247191011235955</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9735099337748344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.0449438202247191</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9735099337748344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.0449438202247191</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9801324503311258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.05617977528089887</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9801324503311258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.05617977528089887</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9867549668874173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1573033707865168</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9867549668874173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1573033707865168</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9933774834437086</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.303370786516854</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9933774834437086</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.303370786516854</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6067415730337079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6966292134831461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.006622516556291391</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6966292134831461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.006622516556291391</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8426966292134831</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01324503311258278</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8426966292134831</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01324503311258278</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9438202247191011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01986754966887417</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9438202247191011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01986754966887417</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9550561797752809</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.02649006622516556</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9550561797752809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.02649006622516556</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9775280898876404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.05298013245033113</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9775280898876404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.05298013245033113</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9956842026936528</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>2523.309642118566</v>
       </c>
     </row>
   </sheetData>
